--- a/Permits_and_EC/types.xlsx
+++ b/Permits_and_EC/types.xlsx
@@ -1023,19 +1023,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
     <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1"/>

--- a/Permits_and_EC/types.xlsx
+++ b/Permits_and_EC/types.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="types" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">types!$A$1:$M$33</definedName>
@@ -17,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>type</t>
   </si>
@@ -155,6 +157,39 @@
   </si>
   <si>
     <t>SUM</t>
+  </si>
+  <si>
+    <t>Census Tract</t>
+  </si>
+  <si>
+    <t>Residential Count</t>
+  </si>
+  <si>
+    <t>Commercial Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residential Total Value </t>
+  </si>
+  <si>
+    <t>Commercial Total Value</t>
+  </si>
+  <si>
+    <t>Demolitions Count</t>
+  </si>
+  <si>
+    <t>Demolitions Total Value</t>
+  </si>
+  <si>
+    <t>Installations Count</t>
+  </si>
+  <si>
+    <t>Installation Total Value</t>
+  </si>
+  <si>
+    <t>Total Value in Census Tract</t>
+  </si>
+  <si>
+    <t>* investigar</t>
   </si>
 </sst>
 </file>
@@ -298,7 +333,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,6 +528,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,7 +704,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -681,6 +728,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1023,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2055,4 +2106,303 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="14">
+        <v>1</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="14">
+        <v>112</v>
+      </c>
+      <c r="D1" s="14">
+        <v>22830</v>
+      </c>
+      <c r="E1" s="14">
+        <v>0</v>
+      </c>
+      <c r="F1" s="14">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>5807</v>
+      </c>
+      <c r="D2">
+        <v>23839</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="13">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="14">
+        <v>9</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="14">
+        <v>767</v>
+      </c>
+      <c r="D3" s="14">
+        <v>288.10000000000002</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>172</v>
+      </c>
+      <c r="D4">
+        <v>72456</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1172000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="15">
+        <v>14</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="15">
+        <v>616</v>
+      </c>
+      <c r="D5" s="15">
+        <v>51750</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16">
+        <v>8000000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>2170</v>
+      </c>
+      <c r="D6">
+        <v>52752</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>9764733</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>1166</v>
+      </c>
+      <c r="D7">
+        <v>5174</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>71</v>
+      </c>
+      <c r="D8">
+        <v>6721</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>542</v>
+      </c>
+      <c r="D9">
+        <v>1215</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>91968</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>1793</v>
+      </c>
+      <c r="D10">
+        <v>10740</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1396500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>67</v>
+      </c>
+      <c r="D11">
+        <v>17529</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13">
+        <v>300000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Permits_and_EC/types.xlsx
+++ b/Permits_and_EC/types.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="types" sheetId="1" r:id="rId1"/>
@@ -1074,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1155,12 +1155,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2">
-        <v>1</v>
-      </c>
+      <c r="K2" s="2"/>
       <c r="L2" s="2">
         <f>SUM(G2:K2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1400,12 +1398,10 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2">
-        <v>1</v>
-      </c>
+      <c r="K10" s="2"/>
       <c r="L10" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2169,7 +2165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
